--- a/public/table.xlsx
+++ b/public/table.xlsx
@@ -11,99 +11,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>name</t>
+    <t>code</t>
   </si>
   <si>
-    <t>username</t>
+    <t>brand</t>
   </si>
   <si>
-    <t>login</t>
+    <t>model</t>
   </si>
   <si>
-    <t>password</t>
+    <t>price</t>
   </si>
   <si>
-    <t>email</t>
+    <t>img</t>
   </si>
   <si>
-    <t>adress</t>
-  </si>
-  <si>
-    <t>Іванна</t>
-  </si>
-  <si>
-    <t>Богун</t>
-  </si>
-  <si>
-    <t>ivbog21</t>
-  </si>
-  <si>
-    <t>valerasasd</t>
-  </si>
-  <si>
-    <t>ivankabogyn@narod.az</t>
+    <t>inf</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Микола</t>
+    <t>Huawei</t>
   </si>
   <si>
-    <t>Волошин</t>
+    <t>ZenPhone</t>
   </si>
   <si>
-    <t>mykola00</t>
+    <t>25000</t>
   </si>
   <si>
-    <t>myk00la</t>
+    <t>https://f5.ua/img/products/1780994/2620033.jpg</t>
   </si>
   <si>
-    <t>mykvoloshyn@hmail.com</t>
+    <t>Екран (6.7, Super AMOLED, 2400x1080) / Qualcomm Snapdragon 720G (2 x 2.3 ГГц + 6 x 1.8 ГГц) / основна квадрокамера: 64 Мп + 12 Мп + 8 Мп + 5 Мп, фронтальна 32 Мп / RAM 6 ГБ / 128 ГБ вбудованої памяті + microSD (до 1 ТБ) / 3G / LTE / GPS / A-GPS / ГЛОНАСС / BDS / підтримка 2 SIM-карток (Nano-SIM) / Android 11.0 (One UI) / 5000 мА·год</t>
   </si>
   <si>
-    <t>Степанко</t>
+    <t>SAMSUNG</t>
   </si>
   <si>
-    <t>Kolya</t>
+    <t>Galaxy A31</t>
   </si>
   <si>
-    <t>+352145144567</t>
+    <t>12000</t>
   </si>
   <si>
-    <t>vva22545</t>
+    <t>https://f5.ua/img/products/1787911/2834956.jpg</t>
   </si>
   <si>
-    <t>styopa2001@gmail.com</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>Oleksandr</t>
-  </si>
-  <si>
-    <t>Solarz</t>
-  </si>
-  <si>
-    <t>380665070548</t>
-  </si>
-  <si>
-    <t>kjkszpg2001</t>
-  </si>
-  <si>
-    <t>sashasolyar2001@gmail.com</t>
+    <t>Екран (6.4, LCD, 2310x1080) / HiSilicon Kirin 810 (2 x 2.27 ГГц + 6 x 1.88 ГГц) / основна квадрокамера: 48 Мп + 8 Мп + 2 Мп + 2 Мп / фронтальна камера: 16 Мп / RAM 6 ГБ / 128 ГБ вбудованої памяті + NM Card (до 256 ГБ) / 5+15ГБ на Huawei Cloud (до 31.12.2020) / 3G / LTE / GPS / A-GPS / GLONASS / підтримка 2 SIM-карток (Nano-SIM) / Android 10.0 (EMUI 10) / 4200 мА·год</t>
   </si>
 </sst>
 </file>
@@ -143,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -191,82 +149,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/table.xlsx
+++ b/public/table.xlsx
@@ -11,24 +11,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>name</t>
+    <t>code</t>
   </si>
   <si>
-    <t>nazva</t>
+    <t>brand</t>
   </si>
   <si>
-    <t>mobile_phones</t>
+    <t>model</t>
   </si>
   <si>
-    <t>мобільні телефони</t>
+    <t>price</t>
   </si>
   <si>
-    <t>refrigerator</t>
+    <t>img</t>
   </si>
   <si>
-    <t>Холодильник</t>
+    <t>inf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>ZenPhone</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>https://f5.ua/img/products/1780994/2620033.jpg</t>
+  </si>
+  <si>
+    <t>Екран (6.7, Super AMOLED, 2400x1080) / Qualcomm Snapdragon 720G (2 x 2.3 ГГц + 6 x 1.8 ГГц) / основна квадрокамера: 64 Мп + 12 Мп + 8 Мп + 5 Мп, фронтальна 32 Мп / RAM 6 ГБ / 128 ГБ вбудованої памяті + microSD (до 1 ТБ) / 3G / LTE / GPS / A-GPS / ГЛОНАСС / BDS / підтримка 2 SIM-карток (Nano-SIM) / Android 11.0 (One UI) / 5000 мА·год</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>Galaxy A31</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>https://f5.ua/img/products/1787911/2834956.jpg</t>
+  </si>
+  <si>
+    <t>Екран (6.4, LCD, 2310x1080) / HiSilicon Kirin 810 (2 x 2.27 ГГц + 6 x 1.88 ГГц) / основна квадрокамера: 48 Мп + 8 Мп + 2 Мп + 2 Мп / фронтальна камера: 16 Мп / RAM 6 ГБ / 128 ГБ вбудованої памяті + NM Card (до 256 ГБ) / 5+15ГБ на Huawei Cloud (до 31.12.2020) / 3G / LTE / GPS / A-GPS / GLONASS / підтримка 2 SIM-карток (Nano-SIM) / Android 10.0 (EMUI 10) / 4200 мА·год</t>
   </si>
 </sst>
 </file>
@@ -68,34 +101,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
